--- a/kuali-core/src/test/resources/json/april.xlsx
+++ b/kuali-core/src/test/resources/json/april.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19360" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="april.txt" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="23">
   <si>
     <t>date</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Sum of total</t>
+  </si>
+  <si>
+    <t>Average of price</t>
   </si>
 </sst>
 </file>
@@ -192,9 +195,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -224,7 +231,7 @@
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="18">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
@@ -232,15 +239,22 @@
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="32" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     </dxf>
@@ -285,10 +299,85 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="section" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="445"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="101" maxValue="445" count="36">
+        <n v="129"/>
+        <n v="132"/>
+        <n v="125"/>
+        <n v="136"/>
+        <n v="137"/>
+        <n v="130"/>
+        <n v="110"/>
+        <n v="111"/>
+        <n v="128"/>
+        <n v="126"/>
+        <n v="104"/>
+        <n v="113"/>
+        <n v="103"/>
+        <n v="123"/>
+        <n v="101"/>
+        <n v="115"/>
+        <n v="121"/>
+        <n v="122"/>
+        <n v="131"/>
+        <n v="105"/>
+        <n v="134"/>
+        <n v="116"/>
+        <n v="119"/>
+        <n v="209"/>
+        <n v="438"/>
+        <n v="425"/>
+        <n v="107"/>
+        <n v="133"/>
+        <n v="135"/>
+        <n v="127"/>
+        <n v="102"/>
+        <n v="112"/>
+        <n v="445"/>
+        <n v="108"/>
+        <n v="220"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="row" numFmtId="0">
-      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+      <sharedItems containsBlank="1" containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="40" count="37">
+        <n v="16"/>
+        <n v="38"/>
+        <n v="6"/>
+        <n v="2"/>
+        <n v="30"/>
+        <n v="4"/>
+        <n v="26"/>
+        <n v="12"/>
+        <n v="9"/>
+        <n v="39"/>
+        <n v="40"/>
+        <n v="18"/>
+        <n v="33"/>
+        <n v="25"/>
+        <n v="28"/>
+        <n v="37"/>
+        <n v="19"/>
+        <n v="11"/>
+        <n v="13"/>
+        <n v="21"/>
+        <n v="15"/>
+        <n v="8"/>
+        <n v="14"/>
+        <n v="23"/>
+        <n v="1"/>
+        <s v="A"/>
+        <n v="10"/>
+        <n v="20"/>
+        <n v="3"/>
+        <n v="29"/>
+        <n v="7"/>
+        <n v="5"/>
+        <n v="36"/>
+        <n v="17"/>
+        <n v="27"/>
+        <n v="24"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="price" numFmtId="42">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="66" maxValue="359"/>
@@ -314,8 +403,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="129"/>
-    <n v="16"/>
+    <x v="0"/>
+    <x v="0"/>
     <n v="144"/>
     <n v="2"/>
     <n v="288"/>
@@ -324,8 +413,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="132"/>
-    <n v="38"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="104"/>
     <n v="5"/>
     <n v="520"/>
@@ -334,8 +423,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="125"/>
-    <n v="6"/>
+    <x v="2"/>
+    <x v="2"/>
     <n v="108"/>
     <n v="1"/>
     <n v="108"/>
@@ -344,8 +433,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="136"/>
-    <n v="2"/>
+    <x v="3"/>
+    <x v="3"/>
     <n v="90"/>
     <n v="2"/>
     <n v="180"/>
@@ -354,8 +443,8 @@
     <x v="0"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="137"/>
-    <n v="30"/>
+    <x v="4"/>
+    <x v="4"/>
     <n v="69"/>
     <n v="4"/>
     <n v="276"/>
@@ -364,8 +453,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="38"/>
+    <x v="5"/>
+    <x v="1"/>
     <n v="109"/>
     <n v="2"/>
     <n v="218"/>
@@ -374,8 +463,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="110"/>
-    <n v="4"/>
+    <x v="6"/>
+    <x v="5"/>
     <n v="157"/>
     <n v="14"/>
     <n v="2198"/>
@@ -384,8 +473,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="111"/>
-    <n v="6"/>
+    <x v="7"/>
+    <x v="2"/>
     <n v="125"/>
     <n v="3"/>
     <n v="375"/>
@@ -394,8 +483,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="128"/>
-    <n v="26"/>
+    <x v="8"/>
+    <x v="6"/>
     <n v="107"/>
     <n v="3"/>
     <n v="321"/>
@@ -404,8 +493,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="132"/>
-    <n v="38"/>
+    <x v="1"/>
+    <x v="1"/>
     <n v="104"/>
     <n v="3"/>
     <n v="312"/>
@@ -414,8 +503,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="12"/>
+    <x v="9"/>
+    <x v="7"/>
     <n v="102"/>
     <n v="3"/>
     <n v="306"/>
@@ -424,8 +513,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="9"/>
+    <x v="10"/>
+    <x v="8"/>
     <n v="93"/>
     <n v="2"/>
     <n v="186"/>
@@ -434,8 +523,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="12"/>
+    <x v="10"/>
+    <x v="7"/>
     <n v="88"/>
     <n v="4"/>
     <n v="352"/>
@@ -444,8 +533,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="113"/>
-    <n v="39"/>
+    <x v="11"/>
+    <x v="9"/>
     <n v="80"/>
     <n v="3"/>
     <n v="240"/>
@@ -454,8 +543,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="113"/>
-    <n v="40"/>
+    <x v="11"/>
+    <x v="10"/>
     <n v="79"/>
     <n v="1"/>
     <n v="79"/>
@@ -464,8 +553,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="26"/>
+    <x v="12"/>
+    <x v="6"/>
     <n v="78"/>
     <n v="4"/>
     <n v="312"/>
@@ -474,8 +563,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="123"/>
-    <n v="38"/>
+    <x v="13"/>
+    <x v="1"/>
     <n v="74"/>
     <n v="4"/>
     <n v="296"/>
@@ -484,8 +573,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="101"/>
-    <n v="18"/>
+    <x v="14"/>
+    <x v="11"/>
     <n v="73"/>
     <n v="7"/>
     <n v="511"/>
@@ -494,8 +583,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="115"/>
-    <n v="33"/>
+    <x v="15"/>
+    <x v="12"/>
     <n v="70"/>
     <n v="3"/>
     <n v="210"/>
@@ -504,8 +593,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="18"/>
+    <x v="12"/>
+    <x v="11"/>
     <n v="68"/>
     <n v="2"/>
     <n v="136"/>
@@ -514,8 +603,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="25"/>
+    <x v="16"/>
+    <x v="13"/>
     <n v="78"/>
     <n v="7"/>
     <n v="546"/>
@@ -524,8 +613,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="122"/>
-    <n v="25"/>
+    <x v="17"/>
+    <x v="13"/>
     <n v="75"/>
     <n v="6"/>
     <n v="450"/>
@@ -534,8 +623,8 @@
     <x v="1"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="122"/>
-    <n v="28"/>
+    <x v="17"/>
+    <x v="14"/>
     <n v="72"/>
     <n v="3"/>
     <n v="216"/>
@@ -544,8 +633,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="2"/>
+    <x v="5"/>
+    <x v="3"/>
     <n v="180"/>
     <n v="2"/>
     <n v="360"/>
@@ -554,8 +643,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="37"/>
+    <x v="5"/>
+    <x v="15"/>
     <n v="119"/>
     <n v="7"/>
     <n v="833"/>
@@ -564,8 +653,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="38"/>
+    <x v="5"/>
+    <x v="1"/>
     <n v="112"/>
     <n v="2"/>
     <n v="224"/>
@@ -574,8 +663,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="4"/>
+    <x v="18"/>
+    <x v="5"/>
     <n v="115"/>
     <n v="2"/>
     <n v="230"/>
@@ -584,8 +673,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="4"/>
+    <x v="18"/>
+    <x v="5"/>
     <n v="115"/>
     <n v="4"/>
     <n v="460"/>
@@ -594,8 +683,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="19"/>
+    <x v="19"/>
+    <x v="16"/>
     <n v="112"/>
     <n v="3"/>
     <n v="336"/>
@@ -604,8 +693,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="11"/>
+    <x v="18"/>
+    <x v="17"/>
     <n v="105"/>
     <n v="2"/>
     <n v="210"/>
@@ -614,8 +703,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="4"/>
+    <x v="19"/>
+    <x v="5"/>
     <n v="101"/>
     <n v="2"/>
     <n v="202"/>
@@ -624,8 +713,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="13"/>
+    <x v="9"/>
+    <x v="18"/>
     <n v="92"/>
     <n v="4"/>
     <n v="368"/>
@@ -634,8 +723,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="21"/>
+    <x v="19"/>
+    <x v="19"/>
     <n v="88"/>
     <n v="5"/>
     <n v="440"/>
@@ -644,8 +733,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="134"/>
-    <n v="2"/>
+    <x v="20"/>
+    <x v="3"/>
     <n v="94"/>
     <n v="2"/>
     <n v="188"/>
@@ -654,8 +743,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="15"/>
+    <x v="10"/>
+    <x v="20"/>
     <n v="87"/>
     <n v="3"/>
     <n v="261"/>
@@ -664,8 +753,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="134"/>
-    <n v="19"/>
+    <x v="20"/>
+    <x v="16"/>
     <n v="85"/>
     <n v="7"/>
     <n v="595"/>
@@ -674,8 +763,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="113"/>
-    <n v="39"/>
+    <x v="11"/>
+    <x v="9"/>
     <n v="80"/>
     <n v="4"/>
     <n v="320"/>
@@ -684,8 +773,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="123"/>
-    <n v="39"/>
+    <x v="13"/>
+    <x v="9"/>
     <n v="77"/>
     <n v="6"/>
     <n v="462"/>
@@ -694,8 +783,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="26"/>
+    <x v="12"/>
+    <x v="6"/>
     <n v="76"/>
     <n v="2"/>
     <n v="152"/>
@@ -704,8 +793,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="8"/>
+    <x v="21"/>
+    <x v="21"/>
     <n v="99"/>
     <n v="2"/>
     <n v="198"/>
@@ -714,8 +803,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="119"/>
-    <n v="12"/>
+    <x v="22"/>
+    <x v="7"/>
     <n v="80"/>
     <n v="3"/>
     <n v="240"/>
@@ -724,8 +813,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="14"/>
+    <x v="21"/>
+    <x v="22"/>
     <n v="79"/>
     <n v="2"/>
     <n v="158"/>
@@ -734,8 +823,8 @@
     <x v="2"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="122"/>
-    <n v="23"/>
+    <x v="17"/>
+    <x v="23"/>
     <n v="75"/>
     <n v="4"/>
     <n v="300"/>
@@ -744,8 +833,8 @@
     <x v="2"/>
     <x v="1"/>
     <s v="SIDELINE"/>
-    <n v="209"/>
-    <n v="1"/>
+    <x v="23"/>
+    <x v="24"/>
     <n v="100"/>
     <n v="2"/>
     <n v="200"/>
@@ -754,8 +843,8 @@
     <x v="2"/>
     <x v="2"/>
     <s v="CORNER"/>
-    <n v="438"/>
-    <s v="A"/>
+    <x v="24"/>
+    <x v="25"/>
     <n v="79"/>
     <n v="3"/>
     <n v="237"/>
@@ -764,8 +853,8 @@
     <x v="2"/>
     <x v="2"/>
     <s v="CORNER"/>
-    <n v="425"/>
-    <s v="A"/>
+    <x v="25"/>
+    <x v="25"/>
     <n v="78"/>
     <n v="3"/>
     <n v="234"/>
@@ -774,8 +863,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="37"/>
+    <x v="5"/>
+    <x v="15"/>
     <n v="114"/>
     <n v="6"/>
     <n v="684"/>
@@ -784,8 +873,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="38"/>
+    <x v="5"/>
+    <x v="1"/>
     <n v="109"/>
     <n v="3"/>
     <n v="327"/>
@@ -794,8 +883,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="38"/>
+    <x v="5"/>
+    <x v="1"/>
     <n v="109"/>
     <n v="4"/>
     <n v="436"/>
@@ -804,8 +893,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="107"/>
-    <n v="11"/>
+    <x v="26"/>
+    <x v="17"/>
     <n v="132"/>
     <n v="2"/>
     <n v="264"/>
@@ -814,8 +903,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="4"/>
+    <x v="18"/>
+    <x v="5"/>
     <n v="115"/>
     <n v="4"/>
     <n v="460"/>
@@ -824,8 +913,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="4"/>
+    <x v="18"/>
+    <x v="5"/>
     <n v="115"/>
     <n v="2"/>
     <n v="230"/>
@@ -834,8 +923,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="111"/>
-    <n v="10"/>
+    <x v="7"/>
+    <x v="26"/>
     <n v="105"/>
     <n v="2"/>
     <n v="210"/>
@@ -844,8 +933,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="9"/>
+    <x v="10"/>
+    <x v="8"/>
     <n v="88"/>
     <n v="3"/>
     <n v="264"/>
@@ -854,8 +943,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="25"/>
+    <x v="12"/>
+    <x v="13"/>
     <n v="79"/>
     <n v="6"/>
     <n v="474"/>
@@ -864,8 +953,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="26"/>
+    <x v="12"/>
+    <x v="6"/>
     <n v="72"/>
     <n v="2"/>
     <n v="144"/>
@@ -874,8 +963,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="101"/>
-    <n v="20"/>
+    <x v="14"/>
+    <x v="27"/>
     <n v="68"/>
     <n v="1"/>
     <n v="68"/>
@@ -884,8 +973,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="101"/>
-    <n v="20"/>
+    <x v="14"/>
+    <x v="27"/>
     <n v="68"/>
     <n v="5"/>
     <n v="340"/>
@@ -894,8 +983,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="3"/>
+    <x v="16"/>
+    <x v="28"/>
     <n v="87"/>
     <n v="2"/>
     <n v="174"/>
@@ -904,8 +993,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="20"/>
+    <x v="16"/>
+    <x v="27"/>
     <n v="75"/>
     <n v="4"/>
     <n v="300"/>
@@ -914,8 +1003,8 @@
     <x v="3"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="29"/>
+    <x v="21"/>
+    <x v="29"/>
     <n v="73"/>
     <n v="4"/>
     <n v="292"/>
@@ -924,8 +1013,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="2"/>
+    <x v="5"/>
+    <x v="3"/>
     <n v="180"/>
     <n v="2"/>
     <n v="360"/>
@@ -934,8 +1023,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="4"/>
+    <x v="18"/>
+    <x v="5"/>
     <n v="120"/>
     <n v="2"/>
     <n v="240"/>
@@ -944,8 +1033,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="7"/>
+    <x v="19"/>
+    <x v="30"/>
     <n v="112"/>
     <n v="2"/>
     <n v="224"/>
@@ -954,8 +1043,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="8"/>
+    <x v="27"/>
+    <x v="21"/>
     <n v="100"/>
     <n v="3"/>
     <n v="300"/>
@@ -964,8 +1053,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="19"/>
+    <x v="27"/>
+    <x v="16"/>
     <n v="89"/>
     <n v="4"/>
     <n v="356"/>
@@ -974,8 +1063,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="135"/>
-    <n v="4"/>
+    <x v="28"/>
+    <x v="5"/>
     <n v="81"/>
     <n v="2"/>
     <n v="162"/>
@@ -984,8 +1073,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="25"/>
+    <x v="12"/>
+    <x v="13"/>
     <n v="79"/>
     <n v="4"/>
     <n v="316"/>
@@ -994,8 +1083,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="135"/>
-    <n v="28"/>
+    <x v="28"/>
+    <x v="14"/>
     <n v="74"/>
     <n v="2"/>
     <n v="148"/>
@@ -1004,8 +1093,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="115"/>
-    <n v="39"/>
+    <x v="15"/>
+    <x v="9"/>
     <n v="66"/>
     <n v="2"/>
     <n v="132"/>
@@ -1014,8 +1103,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="119"/>
-    <n v="5"/>
+    <x v="22"/>
+    <x v="31"/>
     <n v="83"/>
     <n v="6"/>
     <n v="498"/>
@@ -1024,8 +1113,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="20"/>
+    <x v="16"/>
+    <x v="27"/>
     <n v="75"/>
     <n v="5"/>
     <n v="375"/>
@@ -1034,8 +1123,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="20"/>
+    <x v="16"/>
+    <x v="27"/>
     <n v="75"/>
     <n v="2"/>
     <n v="150"/>
@@ -1044,8 +1133,8 @@
     <x v="4"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="122"/>
-    <n v="7"/>
+    <x v="17"/>
+    <x v="30"/>
     <n v="74"/>
     <n v="2"/>
     <n v="148"/>
@@ -1054,8 +1143,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="3"/>
+    <x v="5"/>
+    <x v="28"/>
     <n v="165"/>
     <n v="5"/>
     <n v="825"/>
@@ -1064,8 +1153,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="36"/>
+    <x v="5"/>
+    <x v="32"/>
     <n v="117"/>
     <n v="4"/>
     <n v="468"/>
@@ -1074,8 +1163,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="12"/>
+    <x v="18"/>
+    <x v="7"/>
     <n v="118"/>
     <n v="4"/>
     <n v="472"/>
@@ -1084,8 +1173,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="127"/>
-    <n v="26"/>
+    <x v="29"/>
+    <x v="6"/>
     <n v="109"/>
     <n v="6"/>
     <n v="654"/>
@@ -1094,8 +1183,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="6"/>
+    <x v="19"/>
+    <x v="2"/>
     <n v="107"/>
     <n v="3"/>
     <n v="321"/>
@@ -1104,8 +1193,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="5"/>
+    <x v="27"/>
+    <x v="31"/>
     <n v="107"/>
     <n v="5"/>
     <n v="535"/>
@@ -1114,8 +1203,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="111"/>
-    <n v="10"/>
+    <x v="7"/>
+    <x v="26"/>
     <n v="105"/>
     <n v="2"/>
     <n v="210"/>
@@ -1124,8 +1213,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="11"/>
+    <x v="19"/>
+    <x v="17"/>
     <n v="102"/>
     <n v="2"/>
     <n v="204"/>
@@ -1134,8 +1223,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="8"/>
+    <x v="27"/>
+    <x v="21"/>
     <n v="100"/>
     <n v="2"/>
     <n v="200"/>
@@ -1144,8 +1233,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="4"/>
+    <x v="19"/>
+    <x v="5"/>
     <n v="99"/>
     <n v="2"/>
     <n v="198"/>
@@ -1154,8 +1243,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="4"/>
+    <x v="12"/>
+    <x v="5"/>
     <n v="98"/>
     <n v="2"/>
     <n v="196"/>
@@ -1164,8 +1253,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="123"/>
-    <n v="2"/>
+    <x v="13"/>
+    <x v="3"/>
     <n v="90"/>
     <n v="2"/>
     <n v="180"/>
@@ -1174,8 +1263,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="9"/>
+    <x v="10"/>
+    <x v="8"/>
     <n v="88"/>
     <n v="5"/>
     <n v="440"/>
@@ -1184,8 +1273,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="15"/>
+    <x v="10"/>
+    <x v="20"/>
     <n v="85"/>
     <n v="3"/>
     <n v="255"/>
@@ -1194,8 +1283,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="102"/>
-    <n v="13"/>
+    <x v="30"/>
+    <x v="18"/>
     <n v="82"/>
     <n v="3"/>
     <n v="246"/>
@@ -1204,8 +1293,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="13"/>
+    <x v="12"/>
+    <x v="18"/>
     <n v="79"/>
     <n v="5"/>
     <n v="395"/>
@@ -1214,8 +1303,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="17"/>
+    <x v="12"/>
+    <x v="33"/>
     <n v="78"/>
     <n v="8"/>
     <n v="624"/>
@@ -1224,8 +1313,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="135"/>
-    <n v="28"/>
+    <x v="28"/>
+    <x v="14"/>
     <n v="74"/>
     <n v="2"/>
     <n v="148"/>
@@ -1234,8 +1323,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="29"/>
+    <x v="12"/>
+    <x v="29"/>
     <n v="71"/>
     <n v="4"/>
     <n v="284"/>
@@ -1244,8 +1333,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="136"/>
-    <n v="33"/>
+    <x v="3"/>
+    <x v="12"/>
     <n v="67"/>
     <n v="2"/>
     <n v="134"/>
@@ -1254,8 +1343,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="123"/>
-    <n v="40"/>
+    <x v="13"/>
+    <x v="10"/>
     <n v="66"/>
     <n v="3"/>
     <n v="198"/>
@@ -1264,8 +1353,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="6"/>
+    <x v="21"/>
+    <x v="2"/>
     <n v="83"/>
     <n v="2"/>
     <n v="166"/>
@@ -1274,8 +1363,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="10"/>
+    <x v="16"/>
+    <x v="26"/>
     <n v="77"/>
     <n v="2"/>
     <n v="154"/>
@@ -1284,8 +1373,8 @@
     <x v="5"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="29"/>
+    <x v="21"/>
+    <x v="29"/>
     <n v="72"/>
     <n v="5"/>
     <n v="360"/>
@@ -1294,8 +1383,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="129"/>
-    <n v="1"/>
+    <x v="0"/>
+    <x v="24"/>
     <n v="359"/>
     <n v="2"/>
     <n v="718"/>
@@ -1304,8 +1393,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="3"/>
+    <x v="5"/>
+    <x v="28"/>
     <n v="165"/>
     <n v="1"/>
     <n v="165"/>
@@ -1314,8 +1403,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="129"/>
-    <n v="17"/>
+    <x v="0"/>
+    <x v="33"/>
     <n v="143"/>
     <n v="5"/>
     <n v="715"/>
@@ -1324,8 +1413,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="38"/>
+    <x v="5"/>
+    <x v="1"/>
     <n v="114"/>
     <n v="2"/>
     <n v="228"/>
@@ -1334,8 +1423,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="128"/>
-    <n v="15"/>
+    <x v="8"/>
+    <x v="20"/>
     <n v="155"/>
     <n v="1"/>
     <n v="155"/>
@@ -1344,8 +1433,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="128"/>
-    <n v="2"/>
+    <x v="8"/>
+    <x v="3"/>
     <n v="155"/>
     <n v="2"/>
     <n v="310"/>
@@ -1354,8 +1443,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="107"/>
-    <n v="7"/>
+    <x v="26"/>
+    <x v="30"/>
     <n v="153"/>
     <n v="4"/>
     <n v="612"/>
@@ -1364,8 +1453,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="132"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="28"/>
     <n v="125"/>
     <n v="10"/>
     <n v="1250"/>
@@ -1374,8 +1463,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="7"/>
+    <x v="27"/>
+    <x v="30"/>
     <n v="100"/>
     <n v="2"/>
     <n v="200"/>
@@ -1384,8 +1473,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="12"/>
+    <x v="9"/>
+    <x v="7"/>
     <n v="98"/>
     <n v="6"/>
     <n v="588"/>
@@ -1394,8 +1483,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="10"/>
+    <x v="19"/>
+    <x v="26"/>
     <n v="95"/>
     <n v="4"/>
     <n v="380"/>
@@ -1404,8 +1493,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="13"/>
+    <x v="9"/>
+    <x v="18"/>
     <n v="92"/>
     <n v="2"/>
     <n v="184"/>
@@ -1414,8 +1503,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="21"/>
+    <x v="19"/>
+    <x v="19"/>
     <n v="91"/>
     <n v="7"/>
     <n v="637"/>
@@ -1424,8 +1513,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="112"/>
-    <n v="10"/>
+    <x v="31"/>
+    <x v="26"/>
     <n v="85"/>
     <n v="2"/>
     <n v="170"/>
@@ -1434,8 +1523,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="15"/>
+    <x v="19"/>
+    <x v="20"/>
     <n v="75"/>
     <n v="4"/>
     <n v="300"/>
@@ -1444,8 +1533,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="3"/>
+    <x v="10"/>
+    <x v="28"/>
     <n v="92"/>
     <n v="2"/>
     <n v="184"/>
@@ -1454,8 +1543,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="104"/>
-    <n v="15"/>
+    <x v="10"/>
+    <x v="20"/>
     <n v="84"/>
     <n v="1"/>
     <n v="84"/>
@@ -1464,8 +1553,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="113"/>
-    <n v="40"/>
+    <x v="11"/>
+    <x v="10"/>
     <n v="79"/>
     <n v="5"/>
     <n v="395"/>
@@ -1474,8 +1563,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="29"/>
+    <x v="12"/>
+    <x v="29"/>
     <n v="71"/>
     <n v="2"/>
     <n v="142"/>
@@ -1484,8 +1573,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="101"/>
-    <n v="16"/>
+    <x v="14"/>
+    <x v="0"/>
     <n v="67"/>
     <n v="2"/>
     <n v="134"/>
@@ -1494,8 +1583,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="7"/>
+    <x v="21"/>
+    <x v="30"/>
     <n v="93"/>
     <n v="4"/>
     <n v="372"/>
@@ -1504,8 +1593,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="14"/>
+    <x v="21"/>
+    <x v="22"/>
     <n v="78"/>
     <n v="3"/>
     <n v="234"/>
@@ -1514,8 +1603,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="11"/>
+    <x v="21"/>
+    <x v="17"/>
     <n v="76"/>
     <n v="2"/>
     <n v="152"/>
@@ -1524,8 +1613,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="6"/>
+    <x v="21"/>
+    <x v="2"/>
     <n v="75"/>
     <n v="2"/>
     <n v="150"/>
@@ -1534,8 +1623,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="122"/>
-    <n v="28"/>
+    <x v="17"/>
+    <x v="14"/>
     <n v="72"/>
     <n v="2"/>
     <n v="144"/>
@@ -1544,8 +1633,8 @@
     <x v="6"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="39"/>
+    <x v="16"/>
+    <x v="9"/>
     <n v="71"/>
     <n v="2"/>
     <n v="142"/>
@@ -1554,8 +1643,8 @@
     <x v="6"/>
     <x v="3"/>
     <s v="MAIN"/>
-    <n v="445"/>
-    <n v="9"/>
+    <x v="32"/>
+    <x v="8"/>
     <n v="99"/>
     <n v="3"/>
     <n v="297"/>
@@ -1564,8 +1653,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="13"/>
+    <x v="5"/>
+    <x v="18"/>
     <n v="158"/>
     <n v="2"/>
     <n v="316"/>
@@ -1574,8 +1663,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="108"/>
-    <n v="7"/>
+    <x v="33"/>
+    <x v="30"/>
     <n v="142"/>
     <n v="2"/>
     <n v="284"/>
@@ -1584,8 +1673,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="112"/>
-    <n v="2"/>
+    <x v="31"/>
+    <x v="3"/>
     <n v="121"/>
     <n v="4"/>
     <n v="484"/>
@@ -1594,8 +1683,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="127"/>
-    <n v="11"/>
+    <x v="29"/>
+    <x v="17"/>
     <n v="109"/>
     <n v="3"/>
     <n v="327"/>
@@ -1604,8 +1693,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="128"/>
-    <n v="16"/>
+    <x v="8"/>
+    <x v="0"/>
     <n v="107"/>
     <n v="2"/>
     <n v="214"/>
@@ -1614,8 +1703,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="19"/>
+    <x v="27"/>
+    <x v="16"/>
     <n v="94"/>
     <n v="3"/>
     <n v="282"/>
@@ -1624,8 +1713,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="21"/>
+    <x v="9"/>
+    <x v="19"/>
     <n v="85"/>
     <n v="2"/>
     <n v="170"/>
@@ -1634,8 +1723,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="125"/>
-    <n v="11"/>
+    <x v="2"/>
+    <x v="17"/>
     <n v="112"/>
     <n v="1"/>
     <n v="112"/>
@@ -1644,8 +1733,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="135"/>
-    <n v="2"/>
+    <x v="28"/>
+    <x v="3"/>
     <n v="89"/>
     <n v="3"/>
     <n v="267"/>
@@ -1654,8 +1743,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="8"/>
+    <x v="12"/>
+    <x v="21"/>
     <n v="85"/>
     <n v="4"/>
     <n v="340"/>
@@ -1664,8 +1753,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="125"/>
-    <n v="40"/>
+    <x v="2"/>
+    <x v="10"/>
     <n v="79"/>
     <n v="6"/>
     <n v="474"/>
@@ -1674,8 +1763,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="13"/>
+    <x v="12"/>
+    <x v="18"/>
     <n v="79"/>
     <n v="3"/>
     <n v="237"/>
@@ -1684,8 +1773,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="17"/>
+    <x v="12"/>
+    <x v="33"/>
     <n v="78"/>
     <n v="4"/>
     <n v="312"/>
@@ -1694,8 +1783,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="135"/>
-    <n v="28"/>
+    <x v="28"/>
+    <x v="14"/>
     <n v="74"/>
     <n v="4"/>
     <n v="296"/>
@@ -1704,8 +1793,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="29"/>
+    <x v="12"/>
+    <x v="29"/>
     <n v="71"/>
     <n v="4"/>
     <n v="284"/>
@@ -1714,8 +1803,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="29"/>
+    <x v="12"/>
+    <x v="29"/>
     <n v="71"/>
     <n v="2"/>
     <n v="142"/>
@@ -1724,8 +1813,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="27"/>
+    <x v="12"/>
+    <x v="34"/>
     <n v="71"/>
     <n v="2"/>
     <n v="142"/>
@@ -1734,8 +1823,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="101"/>
-    <n v="17"/>
+    <x v="14"/>
+    <x v="33"/>
     <n v="67"/>
     <n v="3"/>
     <n v="201"/>
@@ -1744,8 +1833,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="11"/>
+    <x v="21"/>
+    <x v="17"/>
     <n v="76"/>
     <n v="2"/>
     <n v="152"/>
@@ -1754,8 +1843,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="10"/>
+    <x v="16"/>
+    <x v="26"/>
     <n v="74"/>
     <n v="1"/>
     <n v="74"/>
@@ -1764,8 +1853,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="39"/>
+    <x v="16"/>
+    <x v="9"/>
     <n v="70"/>
     <n v="2"/>
     <n v="140"/>
@@ -1774,8 +1863,8 @@
     <x v="7"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="37"/>
+    <x v="21"/>
+    <x v="15"/>
     <n v="70"/>
     <n v="6"/>
     <n v="420"/>
@@ -1784,8 +1873,8 @@
     <x v="7"/>
     <x v="3"/>
     <s v="SIDELINE"/>
-    <n v="438"/>
-    <n v="4"/>
+    <x v="24"/>
+    <x v="5"/>
     <n v="79"/>
     <n v="3"/>
     <n v="237"/>
@@ -1794,8 +1883,8 @@
     <x v="7"/>
     <x v="3"/>
     <s v="SIDELINE"/>
-    <n v="438"/>
-    <n v="4"/>
+    <x v="24"/>
+    <x v="5"/>
     <n v="79"/>
     <n v="2"/>
     <n v="158"/>
@@ -1804,8 +1893,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="130"/>
-    <n v="2"/>
+    <x v="5"/>
+    <x v="3"/>
     <n v="180"/>
     <n v="2"/>
     <n v="360"/>
@@ -1814,8 +1903,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="129"/>
-    <n v="5"/>
+    <x v="0"/>
+    <x v="31"/>
     <n v="155"/>
     <n v="6"/>
     <n v="930"/>
@@ -1824,8 +1913,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="129"/>
-    <n v="6"/>
+    <x v="0"/>
+    <x v="2"/>
     <n v="149"/>
     <n v="2"/>
     <n v="298"/>
@@ -1834,8 +1923,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="108"/>
-    <n v="12"/>
+    <x v="33"/>
+    <x v="7"/>
     <n v="142"/>
     <n v="2"/>
     <n v="284"/>
@@ -1844,8 +1933,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="PREMIER"/>
-    <n v="129"/>
-    <n v="17"/>
+    <x v="0"/>
+    <x v="33"/>
     <n v="131"/>
     <n v="2"/>
     <n v="262"/>
@@ -1854,8 +1943,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="132"/>
-    <n v="3"/>
+    <x v="1"/>
+    <x v="28"/>
     <n v="125"/>
     <n v="2"/>
     <n v="250"/>
@@ -1864,8 +1953,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="131"/>
-    <n v="12"/>
+    <x v="18"/>
+    <x v="7"/>
     <n v="120"/>
     <n v="2"/>
     <n v="240"/>
@@ -1874,8 +1963,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="2"/>
+    <x v="9"/>
+    <x v="3"/>
     <n v="112"/>
     <n v="3"/>
     <n v="336"/>
@@ -1884,8 +1973,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="6"/>
+    <x v="19"/>
+    <x v="2"/>
     <n v="107"/>
     <n v="5"/>
     <n v="535"/>
@@ -1894,8 +1983,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="128"/>
-    <n v="17"/>
+    <x v="8"/>
+    <x v="33"/>
     <n v="105"/>
     <n v="6"/>
     <n v="630"/>
@@ -1904,8 +1993,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="128"/>
-    <n v="17"/>
+    <x v="8"/>
+    <x v="33"/>
     <n v="105"/>
     <n v="5"/>
     <n v="525"/>
@@ -1914,8 +2003,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="4"/>
+    <x v="27"/>
+    <x v="5"/>
     <n v="103"/>
     <n v="2"/>
     <n v="516"/>
@@ -1924,8 +2013,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="10"/>
+    <x v="9"/>
+    <x v="26"/>
     <n v="100"/>
     <n v="3"/>
     <m/>
@@ -1934,8 +2023,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="7"/>
+    <x v="27"/>
+    <x v="30"/>
     <n v="100"/>
     <n v="4"/>
     <m/>
@@ -1944,8 +2033,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="112"/>
-    <n v="4"/>
+    <x v="31"/>
+    <x v="5"/>
     <n v="99"/>
     <n v="4"/>
     <m/>
@@ -1954,8 +2043,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="133"/>
-    <n v="20"/>
+    <x v="27"/>
+    <x v="27"/>
     <n v="99"/>
     <n v="2"/>
     <m/>
@@ -1964,8 +2053,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="126"/>
-    <n v="21"/>
+    <x v="9"/>
+    <x v="19"/>
     <n v="92"/>
     <n v="10"/>
     <m/>
@@ -1974,8 +2063,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="24"/>
+    <x v="19"/>
+    <x v="35"/>
     <n v="89"/>
     <n v="8"/>
     <m/>
@@ -1984,8 +2073,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="SIDELINE"/>
-    <n v="105"/>
-    <n v="33"/>
+    <x v="19"/>
+    <x v="12"/>
     <n v="84"/>
     <n v="3"/>
     <m/>
@@ -1994,8 +2083,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="125"/>
-    <n v="2"/>
+    <x v="2"/>
+    <x v="3"/>
     <n v="95"/>
     <n v="4"/>
     <m/>
@@ -2004,8 +2093,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="134"/>
-    <n v="5"/>
+    <x v="20"/>
+    <x v="31"/>
     <n v="88"/>
     <n v="5"/>
     <m/>
@@ -2014,8 +2103,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="135"/>
-    <n v="4"/>
+    <x v="28"/>
+    <x v="5"/>
     <n v="81"/>
     <n v="2"/>
     <m/>
@@ -2024,8 +2113,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="113"/>
-    <n v="39"/>
+    <x v="11"/>
+    <x v="9"/>
     <n v="80"/>
     <n v="11"/>
     <m/>
@@ -2034,8 +2123,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="125"/>
-    <n v="21"/>
+    <x v="2"/>
+    <x v="19"/>
     <n v="78"/>
     <n v="2"/>
     <m/>
@@ -2044,8 +2133,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="5"/>
+    <x v="12"/>
+    <x v="31"/>
     <n v="74"/>
     <n v="2"/>
     <m/>
@@ -2054,8 +2143,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="CORNER"/>
-    <n v="103"/>
-    <n v="16"/>
+    <x v="12"/>
+    <x v="0"/>
     <n v="70"/>
     <n v="3"/>
     <m/>
@@ -2064,8 +2153,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="6"/>
+    <x v="16"/>
+    <x v="2"/>
     <n v="110"/>
     <n v="1"/>
     <m/>
@@ -2074,8 +2163,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="9"/>
+    <x v="16"/>
+    <x v="8"/>
     <n v="74"/>
     <n v="2"/>
     <m/>
@@ -2084,8 +2173,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="121"/>
-    <n v="9"/>
+    <x v="16"/>
+    <x v="8"/>
     <n v="74"/>
     <n v="3"/>
     <m/>
@@ -2094,8 +2183,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="29"/>
+    <x v="21"/>
+    <x v="29"/>
     <n v="72"/>
     <n v="3"/>
     <m/>
@@ -2104,8 +2193,8 @@
     <x v="8"/>
     <x v="0"/>
     <s v="END"/>
-    <n v="116"/>
-    <n v="37"/>
+    <x v="21"/>
+    <x v="15"/>
     <n v="70"/>
     <n v="2"/>
     <m/>
@@ -2114,8 +2203,8 @@
     <x v="8"/>
     <x v="1"/>
     <s v="CORNER"/>
-    <n v="220"/>
-    <n v="1"/>
+    <x v="34"/>
+    <x v="24"/>
     <n v="129"/>
     <n v="4"/>
     <m/>
@@ -2124,8 +2213,8 @@
     <x v="9"/>
     <x v="4"/>
     <m/>
-    <m/>
-    <m/>
+    <x v="35"/>
+    <x v="36"/>
     <m/>
     <m/>
     <m/>
@@ -2134,8 +2223,449 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A10:K16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="N12:X21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="37">
+        <item h="1" x="14"/>
+        <item h="1" x="30"/>
+        <item h="1" x="12"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="31"/>
+        <item h="1" x="11"/>
+        <item h="1" x="15"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="13"/>
+        <item h="1" x="2"/>
+        <item h="1" x="9"/>
+        <item h="1" x="29"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item h="1" x="1"/>
+        <item h="1" x="27"/>
+        <item h="1" x="20"/>
+        <item h="1" x="28"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="23"/>
+        <item h="1" x="34"/>
+        <item h="1" x="25"/>
+        <item h="1" x="24"/>
+        <item h="1" x="32"/>
+        <item h="1" x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of quantity" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="N1:V10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="37">
+        <item h="1" x="14"/>
+        <item h="1" x="30"/>
+        <item h="1" x="12"/>
+        <item h="1" x="10"/>
+        <item h="1" x="19"/>
+        <item x="26"/>
+        <item x="33"/>
+        <item x="6"/>
+        <item h="1" x="7"/>
+        <item h="1" x="31"/>
+        <item h="1" x="11"/>
+        <item h="1" x="15"/>
+        <item h="1" x="21"/>
+        <item h="1" x="22"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
+        <item h="1" x="13"/>
+        <item h="1" x="2"/>
+        <item h="1" x="9"/>
+        <item h="1" x="29"/>
+        <item x="8"/>
+        <item x="0"/>
+        <item x="5"/>
+        <item x="18"/>
+        <item h="1" x="1"/>
+        <item h="1" x="27"/>
+        <item h="1" x="20"/>
+        <item h="1" x="28"/>
+        <item h="1" x="3"/>
+        <item h="1" x="4"/>
+        <item h="1" x="23"/>
+        <item h="1" x="34"/>
+        <item h="1" x="25"/>
+        <item h="1" x="24"/>
+        <item h="1" x="32"/>
+        <item h="1" x="35"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="38">
+        <item x="24"/>
+        <item x="3"/>
+        <item x="28"/>
+        <item x="5"/>
+        <item x="31"/>
+        <item x="2"/>
+        <item x="30"/>
+        <item x="21"/>
+        <item x="8"/>
+        <item x="26"/>
+        <item h="1" x="17"/>
+        <item h="1" x="7"/>
+        <item h="1" x="18"/>
+        <item h="1" x="22"/>
+        <item h="1" x="20"/>
+        <item h="1" x="0"/>
+        <item h="1" x="33"/>
+        <item h="1" x="11"/>
+        <item h="1" x="16"/>
+        <item h="1" x="27"/>
+        <item h="1" x="19"/>
+        <item h="1" x="23"/>
+        <item h="1" x="35"/>
+        <item h="1" x="13"/>
+        <item h="1" x="6"/>
+        <item h="1" x="34"/>
+        <item h="1" x="14"/>
+        <item h="1" x="29"/>
+        <item h="1" x="4"/>
+        <item h="1" x="12"/>
+        <item h="1" x="32"/>
+        <item h="1" x="15"/>
+        <item h="1" x="1"/>
+        <item h="1" x="9"/>
+        <item h="1" x="10"/>
+        <item h="1" x="25"/>
+        <item h="1" x="36"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="8">
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of price" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="42"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A1:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="11">
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="9"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of total" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="2">
+      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable6" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
+  <location ref="A12:K18" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField axis="axisCol" showAll="0">
       <items count="11">
@@ -2236,123 +2766,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A1:K7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="11">
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
-        <item h="1" x="9"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="6">
-        <item x="1"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="10">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of total" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="2">
-    <format dxfId="1">
-      <pivotArea grandCol="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="april_2" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="april" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2360,7 +2775,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="april" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="april_2" connectionId="2" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2687,8 +3102,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U182"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="X12" sqref="X12"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="H183" sqref="H183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2742,30 +3157,14 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="S1" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
     </row>
     <row r="2" spans="1:21">
       <c r="A2">
@@ -2793,31 +3192,8 @@
         <f>G2*F2</f>
         <v>288</v>
       </c>
-      <c r="N2">
-        <v>7</v>
-      </c>
-      <c r="O2" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q2">
-        <v>129</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2" s="2">
-        <v>359</v>
-      </c>
-      <c r="T2">
-        <v>2</v>
-      </c>
-      <c r="U2" s="7">
-        <f>T2*S2</f>
-        <v>718</v>
-      </c>
+      <c r="S2" s="2"/>
+      <c r="U2" s="7"/>
     </row>
     <row r="3" spans="1:21">
       <c r="A3">
@@ -2845,31 +3221,8 @@
         <f t="shared" ref="H3:H66" si="0">G3*F3</f>
         <v>520</v>
       </c>
-      <c r="N3">
-        <v>11</v>
-      </c>
-      <c r="O3" t="s">
-        <v>7</v>
-      </c>
-      <c r="P3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3">
-        <v>130</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2">
-        <v>180</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" s="7">
-        <f>T3*S3</f>
-        <v>360</v>
-      </c>
+      <c r="S3" s="2"/>
+      <c r="U3" s="7"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4">
@@ -2897,31 +3250,8 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="N4">
-        <v>9</v>
-      </c>
-      <c r="O4" t="s">
-        <v>7</v>
-      </c>
-      <c r="P4" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q4">
-        <v>130</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2">
-        <v>180</v>
-      </c>
-      <c r="T4">
-        <v>2</v>
-      </c>
-      <c r="U4" s="7">
-        <f>T4*S4</f>
-        <v>360</v>
-      </c>
+      <c r="S4" s="2"/>
+      <c r="U4" s="7"/>
     </row>
     <row r="5" spans="1:21">
       <c r="A5">
@@ -2949,31 +3279,8 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>7</v>
-      </c>
-      <c r="P5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5">
-        <v>130</v>
-      </c>
-      <c r="R5">
-        <v>2</v>
-      </c>
-      <c r="S5" s="2">
-        <v>180</v>
-      </c>
-      <c r="T5">
-        <v>2</v>
-      </c>
-      <c r="U5" s="7">
-        <f>T5*S5</f>
-        <v>360</v>
-      </c>
+      <c r="S5" s="2"/>
+      <c r="U5" s="7"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6">
@@ -3001,31 +3308,8 @@
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="N6">
-        <v>8</v>
-      </c>
-      <c r="O6" t="s">
-        <v>7</v>
-      </c>
-      <c r="P6" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>130</v>
-      </c>
-      <c r="R6">
-        <v>3</v>
-      </c>
-      <c r="S6" s="2">
-        <v>165</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-      <c r="U6" s="7">
-        <f>T6*S6</f>
-        <v>825</v>
-      </c>
+      <c r="S6" s="2"/>
+      <c r="U6" s="7"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7">
@@ -3053,31 +3337,8 @@
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="N7">
-        <v>7</v>
-      </c>
-      <c r="O7" t="s">
-        <v>7</v>
-      </c>
-      <c r="P7" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q7">
-        <v>130</v>
-      </c>
-      <c r="R7">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2">
-        <v>165</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7" s="7">
-        <f>T7*S7</f>
-        <v>165</v>
-      </c>
+      <c r="S7" s="2"/>
+      <c r="U7" s="7"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8">
@@ -3105,31 +3366,8 @@
         <f t="shared" si="0"/>
         <v>2198</v>
       </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8" t="s">
-        <v>7</v>
-      </c>
-      <c r="P8" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>129</v>
-      </c>
-      <c r="R8">
-        <v>5</v>
-      </c>
-      <c r="S8" s="2">
-        <v>155</v>
-      </c>
-      <c r="T8">
-        <v>6</v>
-      </c>
-      <c r="U8" s="7">
-        <f>T8*S8</f>
-        <v>930</v>
-      </c>
+      <c r="S8" s="2"/>
+      <c r="U8" s="7"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9">
@@ -3157,31 +3395,8 @@
         <f t="shared" si="0"/>
         <v>375</v>
       </c>
-      <c r="N9">
-        <v>5</v>
-      </c>
-      <c r="O9" t="s">
-        <v>7</v>
-      </c>
-      <c r="P9" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q9">
-        <v>129</v>
-      </c>
-      <c r="R9">
-        <v>6</v>
-      </c>
-      <c r="S9" s="2">
-        <v>149</v>
-      </c>
-      <c r="T9">
-        <v>2</v>
-      </c>
-      <c r="U9" s="7">
-        <f>T9*S9</f>
-        <v>298</v>
-      </c>
+      <c r="S9" s="2"/>
+      <c r="U9" s="7"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10">
@@ -3209,31 +3424,8 @@
         <f t="shared" si="0"/>
         <v>321</v>
       </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10" t="s">
-        <v>7</v>
-      </c>
-      <c r="P10" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q10">
-        <v>108</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10" s="2">
-        <v>142</v>
-      </c>
-      <c r="T10">
-        <v>2</v>
-      </c>
-      <c r="U10" s="7">
-        <f>T10*S10</f>
-        <v>284</v>
-      </c>
+      <c r="S10" s="2"/>
+      <c r="U10" s="7"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11">
@@ -3261,31 +3453,8 @@
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="N11">
-        <v>5</v>
-      </c>
-      <c r="O11" t="s">
-        <v>7</v>
-      </c>
-      <c r="P11" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q11">
-        <v>108</v>
-      </c>
-      <c r="R11">
-        <v>12</v>
-      </c>
-      <c r="S11" s="2">
-        <v>142</v>
-      </c>
-      <c r="T11">
-        <v>2</v>
-      </c>
-      <c r="U11" s="7">
-        <f>T11*S11</f>
-        <v>284</v>
-      </c>
+      <c r="S11" s="2"/>
+      <c r="U11" s="7"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12">
@@ -3313,31 +3482,8 @@
         <f t="shared" si="0"/>
         <v>306</v>
       </c>
-      <c r="N12">
-        <v>6</v>
-      </c>
-      <c r="O12" t="s">
-        <v>7</v>
-      </c>
-      <c r="P12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q12">
-        <v>130</v>
-      </c>
-      <c r="R12">
-        <v>13</v>
-      </c>
-      <c r="S12" s="2">
-        <v>158</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12" s="7">
-        <f>T12*S12</f>
-        <v>316</v>
-      </c>
+      <c r="S12" s="2"/>
+      <c r="U12" s="7"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13">
@@ -3365,31 +3511,8 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="N13">
-        <v>13</v>
-      </c>
-      <c r="O13" t="s">
-        <v>7</v>
-      </c>
-      <c r="P13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q13">
-        <v>129</v>
-      </c>
-      <c r="R13">
-        <v>16</v>
-      </c>
-      <c r="S13" s="2">
-        <v>144</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-      <c r="U13" s="7">
-        <f>T13*S13</f>
-        <v>288</v>
-      </c>
+      <c r="S13" s="2"/>
+      <c r="U13" s="7"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14">
@@ -3417,31 +3540,8 @@
         <f t="shared" si="0"/>
         <v>352</v>
       </c>
-      <c r="N14">
-        <v>7</v>
-      </c>
-      <c r="O14" t="s">
-        <v>7</v>
-      </c>
-      <c r="P14" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q14">
-        <v>129</v>
-      </c>
-      <c r="R14">
-        <v>17</v>
-      </c>
-      <c r="S14" s="2">
-        <v>143</v>
-      </c>
-      <c r="T14">
-        <v>5</v>
-      </c>
-      <c r="U14" s="7">
-        <f>T14*S14</f>
-        <v>715</v>
-      </c>
+      <c r="S14" s="2"/>
+      <c r="U14" s="7"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15">
@@ -3469,31 +3569,8 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="N15">
-        <v>5</v>
-      </c>
-      <c r="O15" t="s">
-        <v>7</v>
-      </c>
-      <c r="P15" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q15">
-        <v>129</v>
-      </c>
-      <c r="R15">
-        <v>17</v>
-      </c>
-      <c r="S15" s="2">
-        <v>131</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15" s="7">
-        <f>T15*S15</f>
-        <v>262</v>
-      </c>
+      <c r="S15" s="2"/>
+      <c r="U15" s="7"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16">
@@ -3521,31 +3598,8 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="N16">
-        <v>8</v>
-      </c>
-      <c r="O16" t="s">
-        <v>7</v>
-      </c>
-      <c r="P16" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q16">
-        <v>130</v>
-      </c>
-      <c r="R16">
-        <v>36</v>
-      </c>
-      <c r="S16" s="2">
-        <v>117</v>
-      </c>
-      <c r="T16">
-        <v>4</v>
-      </c>
-      <c r="U16" s="7">
-        <f>T16*S16</f>
-        <v>468</v>
-      </c>
+      <c r="S16" s="2"/>
+      <c r="U16" s="7"/>
     </row>
     <row r="17" spans="1:21">
       <c r="A17">
@@ -3573,31 +3627,8 @@
         <f t="shared" si="0"/>
         <v>312</v>
       </c>
-      <c r="N17">
-        <v>11</v>
-      </c>
-      <c r="O17" t="s">
-        <v>7</v>
-      </c>
-      <c r="P17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q17">
-        <v>130</v>
-      </c>
-      <c r="R17">
-        <v>37</v>
-      </c>
-      <c r="S17" s="2">
-        <v>119</v>
-      </c>
-      <c r="T17">
-        <v>7</v>
-      </c>
-      <c r="U17" s="7">
-        <f>T17*S17</f>
-        <v>833</v>
-      </c>
+      <c r="S17" s="2"/>
+      <c r="U17" s="7"/>
     </row>
     <row r="18" spans="1:21">
       <c r="A18">
@@ -3625,31 +3656,8 @@
         <f t="shared" si="0"/>
         <v>296</v>
       </c>
-      <c r="N18">
-        <v>10</v>
-      </c>
-      <c r="O18" t="s">
-        <v>7</v>
-      </c>
-      <c r="P18" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q18">
-        <v>130</v>
-      </c>
-      <c r="R18">
-        <v>37</v>
-      </c>
-      <c r="S18" s="2">
-        <v>114</v>
-      </c>
-      <c r="T18">
-        <v>6</v>
-      </c>
-      <c r="U18" s="7">
-        <f>T18*S18</f>
-        <v>684</v>
-      </c>
+      <c r="S18" s="2"/>
+      <c r="U18" s="7"/>
     </row>
     <row r="19" spans="1:21">
       <c r="A19">
@@ -3677,31 +3685,8 @@
         <f t="shared" si="0"/>
         <v>511</v>
       </c>
-      <c r="N19">
-        <v>12</v>
-      </c>
-      <c r="O19" t="s">
-        <v>7</v>
-      </c>
-      <c r="P19" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q19">
-        <v>130</v>
-      </c>
-      <c r="R19">
-        <v>38</v>
-      </c>
-      <c r="S19" s="2">
-        <v>109</v>
-      </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19" s="7">
-        <f>T19*S19</f>
-        <v>218</v>
-      </c>
+      <c r="S19" s="2"/>
+      <c r="U19" s="7"/>
     </row>
     <row r="20" spans="1:21">
       <c r="A20">
@@ -3729,31 +3714,8 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="N20">
-        <v>11</v>
-      </c>
-      <c r="O20" t="s">
-        <v>7</v>
-      </c>
-      <c r="P20" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q20">
-        <v>130</v>
-      </c>
-      <c r="R20">
-        <v>38</v>
-      </c>
-      <c r="S20" s="2">
-        <v>112</v>
-      </c>
-      <c r="T20">
-        <v>2</v>
-      </c>
-      <c r="U20" s="7">
-        <f>T20*S20</f>
-        <v>224</v>
-      </c>
+      <c r="S20" s="2"/>
+      <c r="U20" s="7"/>
     </row>
     <row r="21" spans="1:21">
       <c r="A21">
@@ -3781,31 +3743,8 @@
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="N21">
-        <v>10</v>
-      </c>
-      <c r="O21" t="s">
-        <v>7</v>
-      </c>
-      <c r="P21" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q21">
-        <v>130</v>
-      </c>
-      <c r="R21">
-        <v>38</v>
-      </c>
-      <c r="S21" s="2">
-        <v>109</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-      <c r="U21" s="7">
-        <f>T21*S21</f>
-        <v>327</v>
-      </c>
+      <c r="S21" s="2"/>
+      <c r="U21" s="7"/>
     </row>
     <row r="22" spans="1:21">
       <c r="A22">
@@ -3833,31 +3772,8 @@
         <f t="shared" si="0"/>
         <v>546</v>
       </c>
-      <c r="N22">
-        <v>10</v>
-      </c>
-      <c r="O22" t="s">
-        <v>7</v>
-      </c>
-      <c r="P22" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q22">
-        <v>130</v>
-      </c>
-      <c r="R22">
-        <v>38</v>
-      </c>
-      <c r="S22" s="2">
-        <v>109</v>
-      </c>
-      <c r="T22">
-        <v>4</v>
-      </c>
-      <c r="U22" s="7">
-        <f>T22*S22</f>
-        <v>436</v>
-      </c>
+      <c r="S22" s="2"/>
+      <c r="U22" s="7"/>
     </row>
     <row r="23" spans="1:21">
       <c r="A23">
@@ -3885,31 +3801,8 @@
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="N23">
-        <v>7</v>
-      </c>
-      <c r="O23" t="s">
-        <v>7</v>
-      </c>
-      <c r="P23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q23">
-        <v>130</v>
-      </c>
-      <c r="R23">
-        <v>38</v>
-      </c>
-      <c r="S23" s="2">
-        <v>114</v>
-      </c>
-      <c r="T23">
-        <v>2</v>
-      </c>
-      <c r="U23" s="7">
-        <f>T23*S23</f>
-        <v>228</v>
-      </c>
+      <c r="S23" s="2"/>
+      <c r="U23" s="7"/>
     </row>
     <row r="24" spans="1:21">
       <c r="A24">
@@ -8494,10 +8387,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8506,17 +8399,49 @@
     <col min="2" max="2" width="15.83203125" customWidth="1"/>
     <col min="3" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.83203125" customWidth="1"/>
+    <col min="14" max="14" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.83203125" customWidth="1"/>
+    <col min="16" max="21" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="3.1640625" customWidth="1"/>
+    <col min="24" max="25" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="31" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="37" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="52" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:24">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="N1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24">
       <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
@@ -8550,8 +8475,35 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="N2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>6</v>
+      </c>
+      <c r="U2">
+        <v>7</v>
+      </c>
+      <c r="V2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
       <c r="A3" s="4" t="s">
         <v>12</v>
       </c>
@@ -8569,8 +8521,23 @@
       <c r="K3" s="7">
         <v>200</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" s="4">
+        <v>107</v>
+      </c>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7">
+        <v>153</v>
+      </c>
+      <c r="V3" s="7">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -8604,8 +8571,23 @@
       <c r="K4" s="7">
         <v>50697</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" s="4">
+        <v>108</v>
+      </c>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7">
+        <v>142</v>
+      </c>
+      <c r="V4" s="7">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -8623,8 +8605,23 @@
       <c r="K5" s="7">
         <v>471</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5" s="4">
+        <v>110</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7">
+        <v>157</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
@@ -8644,8 +8641,23 @@
       <c r="K6" s="7">
         <v>692</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6" s="4">
+        <v>128</v>
+      </c>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7">
+        <v>155</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -8679,8 +8691,27 @@
       <c r="K7" s="7">
         <v>52060</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7" s="4">
+        <v>129</v>
+      </c>
+      <c r="O7" s="7">
+        <v>359</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7">
+        <v>155</v>
+      </c>
+      <c r="T7" s="7">
+        <v>149</v>
+      </c>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -8691,8 +8722,25 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8" s="4">
+        <v>130</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>165</v>
+      </c>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -8703,179 +8751,456 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="N9" s="4">
+        <v>131</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7">
+        <v>116</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24">
+      <c r="N10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="7">
+        <v>359</v>
+      </c>
+      <c r="P10" s="7">
+        <v>173.75</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>165</v>
+      </c>
+      <c r="R10" s="7">
+        <v>122.83333333333333</v>
+      </c>
+      <c r="S10" s="7">
+        <v>155</v>
+      </c>
+      <c r="T10" s="7">
+        <v>149</v>
+      </c>
+      <c r="U10" s="7">
+        <v>147.5</v>
+      </c>
+      <c r="V10" s="7">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24">
+      <c r="A12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="3" t="s">
+      <c r="N12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24">
+      <c r="A13" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B13">
         <v>5</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>6</v>
       </c>
-      <c r="D11">
-        <v>7</v>
-      </c>
-      <c r="E11">
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
         <v>8</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>9</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>10</v>
       </c>
-      <c r="H11">
+      <c r="H13">
         <v>11</v>
       </c>
-      <c r="I11">
+      <c r="I13">
         <v>12</v>
       </c>
-      <c r="J11">
+      <c r="J13">
         <v>13</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K13" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="4" t="s">
+      <c r="N13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+      <c r="P13">
+        <v>6</v>
+      </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>9</v>
+      </c>
+      <c r="T13">
+        <v>10</v>
+      </c>
+      <c r="U13">
+        <v>11</v>
+      </c>
+      <c r="V13">
         <v>12</v>
       </c>
-      <c r="B12" s="5">
+      <c r="W13">
+        <v>13</v>
+      </c>
+      <c r="X13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="5">
         <v>4</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5">
-        <v>2</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>113</v>
-      </c>
-      <c r="C13" s="5">
-        <v>65</v>
-      </c>
-      <c r="D13" s="5">
-        <v>81</v>
-      </c>
-      <c r="E13" s="5">
-        <v>83</v>
-      </c>
-      <c r="F13" s="5">
-        <v>38</v>
-      </c>
-      <c r="G13" s="5">
-        <v>50</v>
-      </c>
-      <c r="H13" s="5">
-        <v>68</v>
-      </c>
-      <c r="I13" s="5">
-        <v>74</v>
-      </c>
-      <c r="J13" s="5">
-        <v>14</v>
-      </c>
-      <c r="K13" s="5">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
       <c r="K14" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="N14" s="4">
+        <v>107</v>
+      </c>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
+        <v>4</v>
+      </c>
+      <c r="R14" s="5"/>
+      <c r="S14" s="5"/>
+      <c r="T14" s="5">
+        <v>2</v>
+      </c>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
       <c r="A15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="5">
+        <v>113</v>
+      </c>
+      <c r="C15" s="5">
+        <v>65</v>
+      </c>
+      <c r="D15" s="5">
+        <v>81</v>
+      </c>
+      <c r="E15" s="5">
+        <v>83</v>
+      </c>
+      <c r="F15" s="5">
+        <v>38</v>
+      </c>
+      <c r="G15" s="5">
+        <v>50</v>
+      </c>
+      <c r="H15" s="5">
+        <v>68</v>
+      </c>
+      <c r="I15" s="5">
+        <v>74</v>
+      </c>
+      <c r="J15" s="5">
+        <v>14</v>
+      </c>
+      <c r="K15" s="5">
+        <v>586</v>
+      </c>
+      <c r="N15" s="4">
+        <v>108</v>
+      </c>
+      <c r="O15" s="5">
+        <v>2</v>
+      </c>
+      <c r="P15" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5"/>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5">
+        <v>6</v>
+      </c>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>6</v>
+      </c>
+      <c r="N16" s="4">
+        <v>110</v>
+      </c>
+      <c r="O16" s="5"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5">
+        <v>14</v>
+      </c>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24">
+      <c r="A17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
         <v>5</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D17" s="5">
         <v>3</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5">
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="4" t="s">
+      <c r="N17" s="4">
+        <v>128</v>
+      </c>
+      <c r="O17" s="5">
+        <v>11</v>
+      </c>
+      <c r="P17" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>3</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5"/>
+      <c r="T17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5">
+        <v>3</v>
+      </c>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B18" s="5">
         <v>117</v>
       </c>
-      <c r="C16" s="5">
+      <c r="C18" s="5">
         <v>70</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D18" s="5">
         <v>84</v>
       </c>
-      <c r="E16" s="5">
+      <c r="E18" s="5">
         <v>83</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F18" s="5">
         <v>38</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G18" s="5">
         <v>50</v>
       </c>
-      <c r="H16" s="5">
+      <c r="H18" s="5">
         <v>76</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I18" s="5">
         <v>74</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J18" s="5">
         <v>14</v>
       </c>
-      <c r="K16" s="5">
+      <c r="K18" s="5">
         <v>606</v>
+      </c>
+      <c r="N18" s="4">
+        <v>129</v>
+      </c>
+      <c r="O18" s="5">
+        <v>10</v>
+      </c>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
+        <v>7</v>
+      </c>
+      <c r="R18" s="5"/>
+      <c r="S18" s="5"/>
+      <c r="T18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5">
+        <v>2</v>
+      </c>
+      <c r="X18" s="5">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24">
+      <c r="N19" s="4">
+        <v>130</v>
+      </c>
+      <c r="O19" s="5">
+        <v>2</v>
+      </c>
+      <c r="P19" s="5">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>3</v>
+      </c>
+      <c r="R19" s="5">
+        <v>9</v>
+      </c>
+      <c r="S19" s="5">
+        <v>2</v>
+      </c>
+      <c r="T19" s="5">
+        <v>13</v>
+      </c>
+      <c r="U19" s="5">
+        <v>11</v>
+      </c>
+      <c r="V19" s="5">
+        <v>2</v>
+      </c>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24">
+      <c r="N20" s="4">
+        <v>131</v>
+      </c>
+      <c r="O20" s="5">
+        <v>2</v>
+      </c>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5">
+        <v>4</v>
+      </c>
+      <c r="S20" s="5">
+        <v>2</v>
+      </c>
+      <c r="T20" s="5">
+        <v>6</v>
+      </c>
+      <c r="U20" s="5">
+        <v>8</v>
+      </c>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24">
+      <c r="N21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="5">
+        <v>27</v>
+      </c>
+      <c r="P21" s="5">
+        <v>6</v>
+      </c>
+      <c r="Q21" s="5">
+        <v>17</v>
+      </c>
+      <c r="R21" s="5">
+        <v>13</v>
+      </c>
+      <c r="S21" s="5">
+        <v>4</v>
+      </c>
+      <c r="T21" s="5">
+        <v>21</v>
+      </c>
+      <c r="U21" s="5">
+        <v>19</v>
+      </c>
+      <c r="V21" s="5">
+        <v>19</v>
+      </c>
+      <c r="W21" s="5">
+        <v>2</v>
+      </c>
+      <c r="X21" s="5">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
